--- a/xlsx/Wiki列表_intext.xlsx
+++ b/xlsx/Wiki列表_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BB%9F%E4%BB%B6%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>Wiki軟件比較</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Wiki列表</t>
+    <t>Wiki软件比较</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Wiki列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E7%BA%BF%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6%E5%88%97%E8%A1%A8</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>Wiki軟體</t>
+    <t>Wiki软体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Appropedia</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>戴維斯 (加利福尼亞州)</t>
+    <t>戴维斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Diplopedia</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E8%89%A6%E8%BF%B7%E8%88%AA%E8%A8%98</t>
   </si>
   <si>
-    <t>星艦迷航記</t>
+    <t>星舰迷航记</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Metapedia</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E8%A1%97%E5%9C%96</t>
   </si>
   <si>
-    <t>開放街圖</t>
+    <t>开放街图</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ODbL</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%A3%92%E7%90%83%E7%B6%AD%E5%9F%BA%E9%A4%A8</t>
   </si>
   <si>
-    <t>台灣棒球維基館</t>
+    <t>台湾棒球维基馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Vault_(wiki)</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%A1%B5%E9%A4%98%E7%94%9F%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>異塵餘生系列</t>
+    <t>异尘馀生系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Translatewiki.net</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E8%BC%94%E5%8A%A9%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>電腦輔助翻譯</t>
+    <t>电脑辅助翻译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikia</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>Wiki農場</t>
+    <t>Wiki农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wikicollecting</t>
@@ -329,49 +329,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A1%9B%E6%98%9F%E5%9C%B0%E5%9C%96</t>
   </si>
   <si>
-    <t>維基衛星地圖</t>
+    <t>维基卫星地图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>數位圖書館</t>
+    <t>数位图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%AE%A2%E6%97%85%E8%A1%8C</t>
@@ -389,19 +389,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wookieepedia</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>星際大戰</t>
+    <t>星际大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WoWWiki</t>
